--- a/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1_极光组.xlsx
+++ b/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1_极光组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MogoGit\Mogo_Doc\VersionRecords\Version 5.1.1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.1 新特性|Fix Bug'!$A$1:$U$9</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -800,7 +800,7 @@
   <dimension ref="A1:V185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
